--- a/biology/Zoologie/Barychelidae/Barychelidae.xlsx
+++ b/biology/Zoologie/Barychelidae/Barychelidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Barychelidae ou mygales ornées[1] sont une famille d'araignées mygalomorphes[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Barychelidae ou mygales ornées sont une famille d'araignées mygalomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent  en Amérique, en Afrique, en Asie et en Océanie dans les régions tropicales et équatoriales[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent  en Amérique, en Afrique, en Asie et en Océanie dans les régions tropicales et équatoriales.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces Mygales tropicales sont caractérisées par des peignes de soies à l'extrémité de leurs pattes, ce qui leur permet de grimper sur des supports même peu adhérents. Certaines vivent dans la zone de balancement des marées et sont régulièrement immergées à marée haute[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces Mygales tropicales sont caractérisées par des peignes de soies à l'extrémité de leurs pattes, ce qui leur permet de grimper sur des supports même peu adhérents. Certaines vivent dans la zone de balancement des marées et sont régulièrement immergées à marée haute.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Néogène[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Néogène.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24, 17/07/2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24, 17/07/2023) :
 Adelonychia Walsh, 1890
 Ammonius Thorell, 1899
 Atrophothele Pocock, 1903
@@ -673,10 +693,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par Simon en 1889 comme une sous-famille des Avicularidae. 
-Cette famille rassemble 283 espèces dans 39 genres[2].
+Cette famille rassemble 283 espèces dans 39 genres.
 </t>
         </is>
       </c>
@@ -705,7 +727,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Simon, 1889 : « Arachnides. Voyage de M. E. Simon au Venezuela (décembre 1887-avril 1888). 4e Mémoire. » Annales de la Société Entomologique de France, sér. 6, vol. 9, p. 169-220 (texte intégral).</t>
         </is>
